--- a/data/dummy_anonymised.xlsx
+++ b/data/dummy_anonymised.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IM3"/>
+  <dimension ref="A1:JH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,155 +1520,260 @@
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.A</t>
+          <t>G6.01-i</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.B</t>
+          <t>G6.01-ii</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.C</t>
+          <t>G6.01.A1</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.D</t>
+          <t>G6.01.A2</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.E</t>
+          <t>G6.01.B1</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.F</t>
+          <t>G6.01.B2</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.G</t>
+          <t>G6.01.C1</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.H</t>
+          <t>G6.01.C2</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.I</t>
+          <t>G6.01.D1</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.J</t>
+          <t>G6.01.D2</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.K</t>
+          <t>G6.01.E1</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.L</t>
+          <t>G6.01.E2</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.M</t>
+          <t>G6.01.F1</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.N</t>
+          <t>G6.01.F2</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.O</t>
+          <t>G6.01.G1</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.P</t>
+          <t>G6.01.G2</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.Q</t>
+          <t>G6.01.H1</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.R</t>
+          <t>G6.01.H2</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.R.o</t>
+          <t>G6.01.I1</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
+          <t>G6.01.I2</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.J1</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.J2</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.K1</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.K2</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.L1</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.L2</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.M1</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.M2</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.N1</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.N2</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.O1</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.O2</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.P1</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.P2</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.Q1</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.Q2</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.R1</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.R1.0</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.R2</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.R2.0</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
           <t>G6.02</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>OUTCOMEINTERVIEW</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>_id</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>_uuid</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>_submission_time</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>_validation_status</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>_notes</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>_status</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>_submitted_by</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>__version__</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>_tags</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>_index</t>
         </is>
@@ -1705,7 +1810,7 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>respondent_3613037b-350f-40c4-a1a3-7b7453033db9</t>
+          <t>respondent_a242aafb-6454-4c9d-b068-b648b880ede8</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -2043,59 +2148,154 @@
       <c r="HH2" t="inlineStr"/>
       <c r="HI2" t="inlineStr"/>
       <c r="HJ2" t="inlineStr"/>
-      <c r="HK2" t="inlineStr"/>
-      <c r="HL2" t="inlineStr"/>
-      <c r="HM2" t="inlineStr"/>
-      <c r="HN2" t="inlineStr"/>
-      <c r="HO2" t="inlineStr"/>
-      <c r="HP2" t="inlineStr"/>
-      <c r="HQ2" t="inlineStr"/>
-      <c r="HR2" t="inlineStr"/>
-      <c r="HS2" t="inlineStr"/>
-      <c r="HT2" t="inlineStr"/>
-      <c r="HU2" t="inlineStr"/>
-      <c r="HV2" t="inlineStr"/>
-      <c r="HW2" t="inlineStr"/>
-      <c r="HX2" t="inlineStr"/>
-      <c r="HY2" t="inlineStr"/>
-      <c r="HZ2" t="inlineStr"/>
-      <c r="IA2" t="inlineStr"/>
-      <c r="IB2" t="inlineStr"/>
-      <c r="IC2" t="inlineStr">
+      <c r="HK2" t="n">
+        <v>8</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT2" t="inlineStr"/>
+      <c r="IU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV2" t="inlineStr"/>
+      <c r="IW2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="ID2" t="n">
+      <c r="IY2" t="n">
         <v>390754206</v>
       </c>
-      <c r="IE2" t="inlineStr">
+      <c r="IZ2" t="inlineStr">
         <is>
           <t>fec4d3ee-f6aa-4178-b54e-4639a2be918c</t>
         </is>
       </c>
-      <c r="IF2" s="2" t="n">
+      <c r="JA2" s="2" t="n">
         <v>45568.38599537037</v>
       </c>
-      <c r="IG2" t="inlineStr"/>
-      <c r="IH2" t="inlineStr"/>
-      <c r="II2" t="inlineStr">
+      <c r="JB2" t="inlineStr"/>
+      <c r="JC2" t="inlineStr"/>
+      <c r="JD2" t="inlineStr">
         <is>
           <t>submitted_via_web</t>
         </is>
       </c>
-      <c r="IJ2" t="inlineStr">
+      <c r="JE2" t="inlineStr">
         <is>
           <t>bodhiga</t>
         </is>
       </c>
-      <c r="IK2" t="inlineStr">
+      <c r="JF2" t="inlineStr">
         <is>
           <t>vZ5fhmsTtYbgrBBhtzhUuq</t>
         </is>
       </c>
-      <c r="IL2" t="inlineStr"/>
-      <c r="IM2" t="n">
+      <c r="JG2" t="inlineStr"/>
+      <c r="JH2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2142,7 +2342,7 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>respondent_3613037b-350f-40c4-a1a3-7b7453033db9</t>
+          <t>respondent_a242aafb-6454-4c9d-b068-b648b880ede8</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -2818,20 +3018,16 @@
           <t>Not at all</t>
         </is>
       </c>
-      <c r="HI3" t="n">
+      <c r="HI3" t="inlineStr"/>
+      <c r="HJ3" t="inlineStr"/>
+      <c r="HK3" t="n">
         <v>8</v>
       </c>
-      <c r="HJ3" t="n">
+      <c r="HL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM3" t="n">
         <v>2</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>7</v>
       </c>
       <c r="HN3" t="n">
         <v>1</v>
@@ -2840,78 +3036,917 @@
         <v>1</v>
       </c>
       <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU3" t="n">
         <v>1</v>
       </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
+      <c r="HV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" t="n">
         <v>1</v>
       </c>
-      <c r="HS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT3" t="n">
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
         <v>1</v>
       </c>
-      <c r="HU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
+      <c r="IJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM3" t="n">
         <v>1</v>
       </c>
-      <c r="IA3" t="inlineStr">
-        <is>
-          <t>Bodhi</t>
-        </is>
-      </c>
-      <c r="IB3" t="n">
+      <c r="IN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT3" t="inlineStr"/>
+      <c r="IU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV3" t="inlineStr"/>
+      <c r="IW3" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX3" t="inlineStr"/>
+      <c r="IY3" t="n">
+        <v>392922465</v>
+      </c>
+      <c r="IZ3" t="inlineStr">
+        <is>
+          <t>6ca2217c-5c8f-4867-b09a-efd0e46f43df</t>
+        </is>
+      </c>
+      <c r="JA3" s="2" t="n">
+        <v>45574.36636574074</v>
+      </c>
+      <c r="JB3" t="inlineStr"/>
+      <c r="JC3" t="inlineStr"/>
+      <c r="JD3" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="JE3" t="inlineStr">
+        <is>
+          <t>bodhiga</t>
+        </is>
+      </c>
+      <c r="JF3" t="inlineStr">
+        <is>
+          <t>v98xsoj4WBW6UN5Whnf7ot</t>
+        </is>
+      </c>
+      <c r="JG3" t="inlineStr"/>
+      <c r="JH3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45579.38354248842</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45579.39019131944</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>South West State</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bay</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Baidoa</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>respondent_dd8ad690-4ccd-421e-832c-3884a8debdaf</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>45 - 54</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Female adult only</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>With adult males present</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>A lot of difficulty</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>A lot of difficulty</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Some difficulty</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>A lot of difficulty</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Some difficulty</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>A lot of difficulty</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Input into most decisions</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Input into most decisions</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Input into most decisions</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Input into most decisions</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="CQ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+      <c r="DR4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr"/>
+      <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="EG4" t="inlineStr"/>
+      <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+      <c r="EP4" t="inlineStr"/>
+      <c r="EQ4" t="inlineStr"/>
+      <c r="ER4" t="inlineStr"/>
+      <c r="ES4" t="inlineStr"/>
+      <c r="ET4" t="inlineStr">
+        <is>
+          <t>Yes, cash and in-kind</t>
+        </is>
+      </c>
+      <c r="EU4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="EV4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>Yes, in-kind</t>
+        </is>
+      </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>Don’t know</t>
+        </is>
+      </c>
+      <c r="FA4" t="inlineStr"/>
+      <c r="FB4" t="inlineStr"/>
+      <c r="FC4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="FD4" t="inlineStr"/>
+      <c r="FE4" t="inlineStr"/>
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>Don’t know</t>
+        </is>
+      </c>
+      <c r="FG4" t="inlineStr"/>
+      <c r="FH4" t="inlineStr"/>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>Yes, fairly comfortable</t>
+        </is>
+      </c>
+      <c r="FJ4" t="inlineStr">
+        <is>
+          <t>Yes, very comfortable</t>
+        </is>
+      </c>
+      <c r="FK4" t="inlineStr">
+        <is>
+          <t>Yes, very comfortable</t>
+        </is>
+      </c>
+      <c r="FL4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="FM4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="FN4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="FO4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="FP4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="FQ4" t="inlineStr"/>
+      <c r="FR4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="FS4" t="inlineStr"/>
+      <c r="FT4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="FU4" t="inlineStr"/>
+      <c r="FV4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="FW4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="FX4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="FY4" t="inlineStr"/>
+      <c r="FZ4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="GA4" t="inlineStr"/>
+      <c r="GB4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="GC4" t="inlineStr"/>
+      <c r="GD4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="GE4" t="inlineStr"/>
+      <c r="GF4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="GG4" t="inlineStr"/>
+      <c r="GH4" t="inlineStr"/>
+      <c r="GI4" t="inlineStr">
+        <is>
+          <t>Decision not made</t>
+        </is>
+      </c>
+      <c r="GJ4" t="inlineStr">
+        <is>
+          <t>Main female or wife</t>
+        </is>
+      </c>
+      <c r="GK4" t="inlineStr">
+        <is>
+          <t>Main female or wife</t>
+        </is>
+      </c>
+      <c r="GL4" t="inlineStr">
+        <is>
+          <t>Main female or wife</t>
+        </is>
+      </c>
+      <c r="GM4" t="inlineStr">
+        <is>
+          <t>Main female or wife</t>
+        </is>
+      </c>
+      <c r="GN4" t="inlineStr">
+        <is>
+          <t>Main female or wife</t>
+        </is>
+      </c>
+      <c r="GO4" t="inlineStr">
+        <is>
+          <t>Main female or wife</t>
+        </is>
+      </c>
+      <c r="GP4" t="inlineStr"/>
+      <c r="GQ4" t="inlineStr"/>
+      <c r="GR4" t="inlineStr"/>
+      <c r="GS4" t="inlineStr"/>
+      <c r="GT4" t="inlineStr">
+        <is>
+          <t>To a high extent</t>
+        </is>
+      </c>
+      <c r="GU4" t="inlineStr">
+        <is>
+          <t>Never true</t>
+        </is>
+      </c>
+      <c r="GV4" t="inlineStr">
+        <is>
+          <t>Never true</t>
+        </is>
+      </c>
+      <c r="GW4" t="inlineStr">
+        <is>
+          <t>Always true</t>
+        </is>
+      </c>
+      <c r="GX4" t="inlineStr">
+        <is>
+          <t>Medium extent</t>
+        </is>
+      </c>
+      <c r="GY4" t="inlineStr">
+        <is>
+          <t>Never true</t>
+        </is>
+      </c>
+      <c r="GZ4" t="inlineStr">
+        <is>
+          <t>Never true</t>
+        </is>
+      </c>
+      <c r="HA4" t="inlineStr">
+        <is>
+          <t>Always true</t>
+        </is>
+      </c>
+      <c r="HB4" t="inlineStr">
+        <is>
+          <t>To a high extent</t>
+        </is>
+      </c>
+      <c r="HC4" t="inlineStr">
+        <is>
+          <t>Not very true</t>
+        </is>
+      </c>
+      <c r="HD4" t="inlineStr">
+        <is>
+          <t>Always true</t>
+        </is>
+      </c>
+      <c r="HE4" t="inlineStr">
+        <is>
+          <t>Decision not made</t>
+        </is>
+      </c>
+      <c r="HF4" t="inlineStr">
+        <is>
+          <t>Medium extent</t>
+        </is>
+      </c>
+      <c r="HG4" t="inlineStr">
+        <is>
+          <t>To a high extent</t>
+        </is>
+      </c>
+      <c r="HH4" t="inlineStr">
+        <is>
+          <t>Medium extent</t>
+        </is>
+      </c>
+      <c r="HI4" t="inlineStr"/>
+      <c r="HJ4" t="inlineStr"/>
+      <c r="HK4" t="n">
         <v>8</v>
       </c>
-      <c r="IC3" t="inlineStr"/>
-      <c r="ID3" t="n">
-        <v>392922465</v>
-      </c>
-      <c r="IE3" t="inlineStr">
-        <is>
-          <t>6ca2217c-5c8f-4867-b09a-efd0e46f43df</t>
-        </is>
-      </c>
-      <c r="IF3" s="2" t="n">
-        <v>45574.36636574074</v>
-      </c>
-      <c r="IG3" t="inlineStr"/>
-      <c r="IH3" t="inlineStr"/>
-      <c r="II3" t="inlineStr">
+      <c r="HL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" t="inlineStr"/>
+      <c r="IU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV4" t="inlineStr"/>
+      <c r="IW4" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX4" t="inlineStr"/>
+      <c r="IY4" t="n">
+        <v>394771960</v>
+      </c>
+      <c r="IZ4" t="inlineStr">
+        <is>
+          <t>a43d678f-3ed3-4e6b-af09-3131fb9fd9cf</t>
+        </is>
+      </c>
+      <c r="JA4" s="2" t="n">
+        <v>45579.34853009259</v>
+      </c>
+      <c r="JB4" t="inlineStr"/>
+      <c r="JC4" t="inlineStr"/>
+      <c r="JD4" t="inlineStr">
         <is>
           <t>submitted_via_web</t>
         </is>
       </c>
-      <c r="IJ3" t="inlineStr">
+      <c r="JE4" t="inlineStr">
         <is>
           <t>bodhiga</t>
         </is>
       </c>
-      <c r="IK3" t="inlineStr">
-        <is>
-          <t>v98xsoj4WBW6UN5Whnf7ot</t>
-        </is>
-      </c>
-      <c r="IL3" t="inlineStr"/>
-      <c r="IM3" t="n">
-        <v>2</v>
+      <c r="JF4" t="inlineStr">
+        <is>
+          <t>vZFDndRuEmiKfEP48jyeDf</t>
+        </is>
+      </c>
+      <c r="JG4" t="inlineStr"/>
+      <c r="JH4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
